--- a/UAS WEB.xlsx
+++ b/UAS WEB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uas Pak Razy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>NO</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>https://www.instagram.com/p/CKJyKKOAVfZ/?utm_source=ig_web_copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tv/CKMEZ3XgCik/?utm_source=ig_web_copy_li</t>
+  </si>
+  <si>
+    <t>https://github.com/ahmadrhmndni/Uas-Pak-Razy.git</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,27 +194,8 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -219,7 +206,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -229,12 +216,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,12 +234,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -533,261 +518,265 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="65.77734375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -821,8 +810,10 @@
     <hyperlink ref="D15" r:id="rId28"/>
     <hyperlink ref="C16" r:id="rId29"/>
     <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="C17" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId33"/>
 </worksheet>
 </file>